--- a/Manuscript/Table 2.xlsx
+++ b/Manuscript/Table 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenscherrer/Google Drive/Weng Lab/Data/Bottomfish/Okamoto_Mark_Recapture/paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenscherrer/Documents/Work/Disseratation/Ch-4.-Estimating-Growth-Parameters-master/Manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232C6D85-EF79-D248-9275-DC79E381C914}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD91A605-8671-7E49-ABF5-BB07FA2FCEFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="940" windowWidth="28040" windowHeight="17060" xr2:uid="{3D5572E7-4A3C-974E-A822-0DC81A6733BA}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17060" xr2:uid="{3D5572E7-4A3C-974E-A822-0DC81A6733BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
   <si>
     <t>Model ID</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Model 11</t>
-  </si>
-  <si>
-    <t>Model 12</t>
   </si>
   <si>
     <t>X</t>
@@ -106,13 +103,19 @@
     <t>Length Frequency 
 Moffitt &amp; Parrish (1996)
  Modal Progression</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Model 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,35 +127,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -226,50 +216,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,272 +558,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14C0473-AC4B-5E40-8F2F-B32A5CDAC6B9}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="A1:I8"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="5"/>
+    <col min="3" max="3" width="8.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="144" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" ht="156" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="11" t="s">
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="K4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="K7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="K8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="K9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
